--- a/com.backbase.sample/Test Excel Files/SearchComputerTestData.xlsx
+++ b/com.backbase.sample/Test Excel Files/SearchComputerTestData.xlsx
@@ -28,7 +28,7 @@
     <t>#NonExistingHGTestCompName</t>
   </si>
   <si>
-    <t>HGNew_MAC700</t>
+    <t>Solaris XYZ Computers Quad Series</t>
   </si>
 </sst>
 </file>
@@ -373,12 +373,12 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="32.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="9.140625" style="1" collapsed="1"/>
     <col min="3" max="5" width="9.140625" style="1"/>
     <col min="6" max="6" width="9.140625" style="1" collapsed="1"/>
